--- a/StateOfPractice/Ao-Notes/Medical Imaging Interview Record.xlsx
+++ b/StateOfPractice/Ao-Notes/Medical Imaging Interview Record.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B820770F-5533-433F-81BA-5945DD4429E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775A5637-2821-436C-83D9-55F58B24F0B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="159">
   <si>
     <t>3D Slicer</t>
   </si>
@@ -495,6 +495,15 @@
   </si>
   <si>
     <t>Michael J. Martinez</t>
+  </si>
+  <si>
+    <t>replied</t>
+  </si>
+  <si>
+    <t>interviewed</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -518,12 +527,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -539,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -550,12 +565,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill>
@@ -566,7 +582,273 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -846,738 +1128,1023 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB6" sqref="AB6"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1">
+        <v>7.6714406926254683E-2</v>
+      </c>
+      <c r="C1">
+        <v>7.0178272957958254E-2</v>
+      </c>
+      <c r="D1">
+        <v>6.3715733790137452E-2</v>
+      </c>
+      <c r="E1">
+        <v>5.2888385471848667E-2</v>
+      </c>
+      <c r="F1">
+        <v>4.3865208009566566E-2</v>
+      </c>
+      <c r="G1">
+        <v>4.2034783986803194E-2</v>
+      </c>
+      <c r="H1">
+        <v>4.0850142907194138E-2</v>
+      </c>
+      <c r="I1">
+        <v>4.0336182950732824E-2</v>
+      </c>
+      <c r="J1">
+        <v>3.9911101146757985E-2</v>
+      </c>
+      <c r="K1">
+        <v>3.6574944823784088E-2</v>
+      </c>
+      <c r="L1">
+        <v>3.6163117748087129E-2</v>
+      </c>
+      <c r="M1">
+        <v>3.5547893033998933E-2</v>
+      </c>
+      <c r="N1">
+        <v>3.5524962754104543E-2</v>
+      </c>
+      <c r="O1">
+        <v>3.0120376872417358E-2</v>
+      </c>
+      <c r="P1">
+        <v>2.882882605100158E-2</v>
+      </c>
+      <c r="Q1">
+        <v>2.8811493030753532E-2</v>
+      </c>
+      <c r="R1">
+        <v>2.832273533648804E-2</v>
+      </c>
+      <c r="S1">
+        <v>2.6993337317646783E-2</v>
+      </c>
+      <c r="T1">
+        <v>2.6282999602664121E-2</v>
+      </c>
+      <c r="U1">
+        <v>2.6229538271363671E-2</v>
+      </c>
+      <c r="V1">
+        <v>2.4928185823837146E-2</v>
+      </c>
+      <c r="W1">
+        <v>2.4178123950359728E-2</v>
+      </c>
+      <c r="X1">
+        <v>2.4049366133967954E-2</v>
+      </c>
+      <c r="Y1">
+        <v>2.3163710581509879E-2</v>
+      </c>
+      <c r="Z1">
+        <v>2.2082002377303928E-2</v>
+      </c>
+      <c r="AA1">
+        <v>1.9186082321105108E-2</v>
+      </c>
+      <c r="AB1">
+        <v>1.9101451105293012E-2</v>
+      </c>
+      <c r="AC1">
+        <v>1.7951644826251785E-2</v>
+      </c>
+      <c r="AD1">
+        <v>1.5464989890808137E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="S3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="U3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="AC3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:30" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="S4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="U4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="AA4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W3" s="2" t="s">
+      <c r="AC4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>89</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" t="s">
         <v>99</v>
       </c>
-      <c r="D5" t="s">
+      <c r="S6" t="s">
+        <v>144</v>
+      </c>
+      <c r="T6" t="s">
         <v>102</v>
       </c>
-      <c r="E5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" t="s">
-        <v>133</v>
-      </c>
-      <c r="N5" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>112</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="U6" t="s">
+        <v>146</v>
+      </c>
+      <c r="W6" t="s">
         <v>152</v>
       </c>
-      <c r="T5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="X6" t="s">
         <v>155</v>
       </c>
-      <c r="AD5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="S7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="S6" s="3" t="s">
+      <c r="U7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB6" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AD6" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="5">
         <v>44257</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C8" s="5">
         <v>44257</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E8" s="5">
         <v>44257</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F8" s="5">
         <v>44257</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G8" s="5">
         <v>44257</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H8" s="5">
         <v>44257</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J8" s="5">
+        <v>44258</v>
+      </c>
+      <c r="L8" s="5">
+        <v>44258</v>
+      </c>
+      <c r="N8" s="5">
+        <v>44258</v>
+      </c>
+      <c r="O8" s="5">
+        <v>44258</v>
+      </c>
+      <c r="P8" s="5">
+        <v>44258</v>
+      </c>
+      <c r="Q8" s="5">
         <v>44257</v>
       </c>
-      <c r="J7" s="5">
+      <c r="R8" s="5">
+        <v>44257</v>
+      </c>
+      <c r="S8" s="5">
         <v>44258</v>
       </c>
-      <c r="M7" s="5">
+      <c r="T8" s="5">
+        <v>44257</v>
+      </c>
+      <c r="U8" s="5">
         <v>44258</v>
       </c>
-      <c r="N7" s="5">
+      <c r="W8" s="5">
         <v>44258</v>
       </c>
-      <c r="P7" s="5">
+      <c r="X8" s="5">
         <v>44258</v>
       </c>
-      <c r="Q7" s="5">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44280</v>
+      </c>
+      <c r="E9" s="5">
+        <v>44280</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44280</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <v>44280</v>
+      </c>
+      <c r="R9" s="5">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="5">
         <v>44257</v>
       </c>
-      <c r="S7" s="5">
+      <c r="G10" s="5">
+        <v>44261</v>
+      </c>
+      <c r="H10" s="6">
+        <v>44283</v>
+      </c>
+      <c r="J10" s="5">
         <v>44258</v>
       </c>
-      <c r="T7" s="5">
+      <c r="L10" s="5">
+        <v>44263</v>
+      </c>
+      <c r="P10" s="5">
+        <v>44259</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>44257</v>
+      </c>
+      <c r="R10" s="5">
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44263</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44294</v>
+      </c>
+      <c r="J11" s="5">
+        <v>44281</v>
+      </c>
+      <c r="L11" s="5">
+        <v>44284</v>
+      </c>
+      <c r="P11" s="5">
+        <v>44273</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="J14" s="5">
         <v>44258</v>
       </c>
-      <c r="U7" s="5">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="T14" s="5">
         <v>44257</v>
       </c>
-      <c r="AA7" s="5">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="5">
+        <v>44280</v>
+      </c>
+      <c r="F15" s="5">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" t="s">
+        <v>140</v>
+      </c>
+      <c r="U17" t="s">
+        <v>148</v>
+      </c>
+      <c r="W17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="5">
+        <v>44257</v>
+      </c>
+      <c r="K19" s="5">
         <v>44258</v>
       </c>
-      <c r="AB7" s="5">
-        <v>44258</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>44258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="5">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="5">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="S24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
-        <v>44257</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="P10" s="5">
-        <v>44258</v>
-      </c>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" t="s">
-        <v>140</v>
-      </c>
-      <c r="P13" t="s">
-        <v>125</v>
-      </c>
-      <c r="S13" t="s">
-        <v>151</v>
-      </c>
-      <c r="X13" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="X15" s="5">
-        <v>44257</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>44258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>92</v>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:AD1 B2:I2 L2:AD2">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B1))=0</formula>
+  <conditionalFormatting sqref="B29:S29">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="1">
+      <formula>LEN(TRIM(B29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3 H3:I3 L3:Z3">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B3))=0</formula>
+  <conditionalFormatting sqref="B2:AD2 B3:I3 L3:AD3">
+    <cfRule type="containsBlanks" dxfId="38" priority="20">
+      <formula>LEN(TRIM(B2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4 H4:I4 L4:Z4">
+    <cfRule type="containsBlanks" dxfId="37" priority="19">
+      <formula>LEN(TRIM(B4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B10 D10:E10 G10 I10:AD10">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="18">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B11 G11:AD11 D11:E11">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="17">
+      <formula>LEN(TRIM(A11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="16">
+      <formula>LEN(TRIM(F10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="15">
+      <formula>LEN(TRIM(F11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="14">
+      <formula>LEN(TRIM(C10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="13">
+      <formula>LEN(TRIM(C11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B21 G21:AD21 D21:E21">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="12">
+      <formula>LEN(TRIM(A21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22 G22:AD22 D22:E22">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="11">
+      <formula>LEN(TRIM(A22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="10">
+      <formula>LEN(TRIM(F21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="9">
+      <formula>LEN(TRIM(F22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:S21">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="8">
+      <formula>LEN(TRIM(B21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:S22">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="7">
+      <formula>LEN(TRIM(B22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B28 G28:AD28 D28:E28">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="6">
+      <formula>LEN(TRIM(A28))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:B29 G29:AD29 D29:E29">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="5">
+      <formula>LEN(TRIM(A29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="4">
+      <formula>LEN(TRIM(F28))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(F29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:S28">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="2">
+      <formula>LEN(TRIM(B28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{539624F5-6F6C-49FC-92AA-F4568A33F9DC}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{9037577E-13C1-4E63-B6F4-E69FA0A4E287}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{F77BF04A-B1FC-42A9-8B32-53C521F9EB60}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{D943AFB1-738A-4017-84BD-13604DEBA390}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{D57D2326-EFBA-4C44-880C-A81E5274C00A}"/>
-    <hyperlink ref="H2" r:id="rId6" xr:uid="{060497D2-785F-4CBF-BDBB-0C813404B3A1}"/>
-    <hyperlink ref="I2" r:id="rId7" xr:uid="{75B3C138-2D08-4BAC-8E3E-F86C7B4F5922}"/>
-    <hyperlink ref="J2" r:id="rId8" xr:uid="{D3D3480A-9EBE-417D-B9C3-9A27494FDB86}"/>
-    <hyperlink ref="K2" r:id="rId9" xr:uid="{C37E23E0-9088-4C72-8AA4-86B305383110}"/>
-    <hyperlink ref="L2" r:id="rId10" xr:uid="{1176DC89-D51C-437B-B8A3-11A5B3F0B278}"/>
-    <hyperlink ref="M2" r:id="rId11" xr:uid="{4FFD7C50-7759-46D7-9CB2-A8E8FFB55F80}"/>
-    <hyperlink ref="N2" r:id="rId12" xr:uid="{A0C64C43-BD8A-4981-88D8-0C6AD53E9369}"/>
-    <hyperlink ref="O2" r:id="rId13" xr:uid="{B6414C32-BD97-48E0-AA37-D8FAF2C039E7}"/>
-    <hyperlink ref="P2" r:id="rId14" xr:uid="{94DAA6D1-B1E9-441F-922B-E05B70C6155B}"/>
-    <hyperlink ref="R2" r:id="rId15" xr:uid="{75812819-9AE2-4CF6-B80C-A3784EE4EC80}"/>
-    <hyperlink ref="S2" r:id="rId16" xr:uid="{F82E49BD-2F0A-4B89-9BB1-1F41DB104AB0}"/>
-    <hyperlink ref="T2" r:id="rId17" xr:uid="{02B6FF37-0099-42D7-9F92-F378BCA3365A}"/>
-    <hyperlink ref="U2" r:id="rId18" xr:uid="{583C3854-B684-4BA9-BC99-82CF17549029}"/>
-    <hyperlink ref="V2" r:id="rId19" xr:uid="{17432AED-CAE7-4C10-8E42-8A1B374C2EBA}"/>
-    <hyperlink ref="W2" r:id="rId20" xr:uid="{C16EFA0A-1AE7-4F9F-9545-30780CF19065}"/>
-    <hyperlink ref="X2" r:id="rId21" xr:uid="{7C5039D3-5AD7-490E-B00A-B7B6EFE5C865}"/>
-    <hyperlink ref="Y2" r:id="rId22" xr:uid="{2A628ECD-E5A6-4E17-A534-A69072679189}"/>
-    <hyperlink ref="Z2" r:id="rId23" xr:uid="{63806255-7377-49E0-A397-5B11DAA9343F}"/>
-    <hyperlink ref="AA2" r:id="rId24" xr:uid="{3A478EC5-8D3B-4BCD-9706-716F60436C46}"/>
-    <hyperlink ref="AB2" r:id="rId25" xr:uid="{09437F82-E252-44EC-AE25-282C76C18427}"/>
-    <hyperlink ref="AC2" r:id="rId26" xr:uid="{97C581C1-8966-4D00-977E-FC9400C8C5CE}"/>
-    <hyperlink ref="AD2" r:id="rId27" xr:uid="{CB4E3D91-71D3-4F8C-A035-1DB241E3F9EF}"/>
-    <hyperlink ref="B3" r:id="rId28" xr:uid="{6ED4C968-40AC-444F-8A0C-458A0CF252F0}"/>
-    <hyperlink ref="C3" r:id="rId29" xr:uid="{E17C85D6-B300-4349-A210-0614148F1D0D}"/>
-    <hyperlink ref="D3" r:id="rId30" xr:uid="{E3F6CAC3-C4F5-4225-890E-A706C6326857}"/>
-    <hyperlink ref="E3" r:id="rId31" xr:uid="{66564E3B-367E-4596-A5CE-E49ED15CFBB9}"/>
-    <hyperlink ref="G3" r:id="rId32" xr:uid="{88D560D7-28C7-49D9-BF51-C3B0ACBBE9ED}"/>
-    <hyperlink ref="F3" r:id="rId33" xr:uid="{23807C4F-34FE-430F-B040-3929AF2A62A1}"/>
-    <hyperlink ref="H3" r:id="rId34" xr:uid="{BF9BD054-DEF0-4981-9429-6DD880637B4A}"/>
-    <hyperlink ref="I3" r:id="rId35" xr:uid="{2FD85A57-310C-4BB3-829C-37F50C5A0913}"/>
-    <hyperlink ref="J3" r:id="rId36" xr:uid="{A46CA8A1-F9E7-4095-A756-08B45D90E2D6}"/>
-    <hyperlink ref="K3" r:id="rId37" xr:uid="{A02BA661-B136-4DA8-B2B1-A0BB6CFD8675}"/>
-    <hyperlink ref="L3" r:id="rId38" xr:uid="{1B65CB5E-AF5E-4E07-BB23-5BED61FE7D97}"/>
-    <hyperlink ref="M3" r:id="rId39" xr:uid="{822FB2A8-2999-4583-872A-E7F8FBFD79F1}"/>
-    <hyperlink ref="N3" r:id="rId40" xr:uid="{7B3D6E6C-AEB8-4515-9D0A-198A49C9CE81}"/>
-    <hyperlink ref="O3" r:id="rId41" xr:uid="{928FF90E-37FA-4683-9B57-EC302C59DE5F}"/>
-    <hyperlink ref="P3" r:id="rId42" xr:uid="{DB674E0A-3225-4E00-9315-4CD073A8D987}"/>
-    <hyperlink ref="R3" r:id="rId43" xr:uid="{476584E6-2A43-478E-8D31-7094CC618B46}"/>
-    <hyperlink ref="S3" r:id="rId44" xr:uid="{A49B931C-3408-4F99-B85B-D3C85E1F6401}"/>
-    <hyperlink ref="U3" r:id="rId45" display="https://github.com/Kitware/ParaView" xr:uid="{01E9493E-11DE-455F-9BB9-201CD24B2F52}"/>
-    <hyperlink ref="V3" r:id="rId46" xr:uid="{F726B33E-00C1-48B3-B812-4D6B0C9A5288}"/>
-    <hyperlink ref="W3" r:id="rId47" xr:uid="{C66F5B5E-E54B-4E85-8FDF-8E81D361FC1C}"/>
-    <hyperlink ref="X3" r:id="rId48" xr:uid="{AE42D930-2340-4F1F-8D8E-E131306DE205}"/>
-    <hyperlink ref="Y3" r:id="rId49" xr:uid="{4D909F6D-C0AD-492B-8414-A91A916E77EB}"/>
-    <hyperlink ref="Z3" r:id="rId50" xr:uid="{3FC03603-7EC5-4B9D-8AF6-5AFA572C4CD9}"/>
-    <hyperlink ref="AA3" r:id="rId51" xr:uid="{637254FA-7572-47C2-BA8B-DEE77D1F1084}"/>
-    <hyperlink ref="AC3" r:id="rId52" xr:uid="{4F89ADDF-5B8C-4E51-90DB-65D494AA2AFE}"/>
-    <hyperlink ref="B6" r:id="rId53" xr:uid="{308C22C5-7A39-4A91-9A79-E19D640666FE}"/>
-    <hyperlink ref="B14" r:id="rId54" xr:uid="{30FF026B-386E-4962-A06F-445B879B6CF4}"/>
-    <hyperlink ref="B19" r:id="rId55" xr:uid="{A3E2C87D-41D2-49FF-BD3D-21D3D5C746C0}"/>
-    <hyperlink ref="C6" r:id="rId56" xr:uid="{C1D91651-0875-4B25-B451-3FA281904177}"/>
-    <hyperlink ref="D6" r:id="rId57" xr:uid="{BC00A81E-511E-4D67-BE3A-A9AE1062B061}"/>
-    <hyperlink ref="E6" r:id="rId58" xr:uid="{ED7FDE25-924F-4A86-AF8C-861B790AC757}"/>
-    <hyperlink ref="F6" r:id="rId59" xr:uid="{0CD5B761-6C54-4DD2-98CF-16D8AF487119}"/>
-    <hyperlink ref="I6" r:id="rId60" xr:uid="{CB8CA61B-8116-48FB-B9D7-FCEF93929185}"/>
-    <hyperlink ref="Q2" r:id="rId61" xr:uid="{E3F14ADE-2768-4BB7-9657-663D7CB2058E}"/>
-    <hyperlink ref="Q3" r:id="rId62" xr:uid="{3A491ED1-CB14-4983-BEFD-5561643FC5E5}"/>
-    <hyperlink ref="Q6" r:id="rId63" xr:uid="{04FB28CC-23E6-41D6-BA09-0DE4514EC610}"/>
-    <hyperlink ref="G6" r:id="rId64" xr:uid="{9C11B19E-8CBA-410D-A6EB-FDE9F072E555}"/>
-    <hyperlink ref="Q9" r:id="rId65" xr:uid="{D5002F90-2EC9-4CDF-BC14-09A8EDB18790}"/>
-    <hyperlink ref="G9" r:id="rId66" xr:uid="{94902970-3B88-4343-8357-B06028921DAD}"/>
-    <hyperlink ref="U6" r:id="rId67" xr:uid="{0C4BB1B5-6FB2-4FFD-9B31-C714EE76263C}"/>
-    <hyperlink ref="X6" r:id="rId68" xr:uid="{28933431-BA15-4B4E-B36E-F84035A531D4}"/>
-    <hyperlink ref="X14" r:id="rId69" xr:uid="{1F4E4C4E-063E-495E-A1BD-F8F39E01B9BF}"/>
-    <hyperlink ref="P6" r:id="rId70" xr:uid="{6BF505ED-62EF-4E9F-AD7C-9CE6E87F21C7}"/>
-    <hyperlink ref="P14" r:id="rId71" xr:uid="{30357D0B-AD4F-4438-BE01-611B7BA953FF}"/>
-    <hyperlink ref="Y6" r:id="rId72" xr:uid="{41502A59-78EE-4BCE-99E5-AA9F7A4C3366}"/>
-    <hyperlink ref="Y14" r:id="rId73" xr:uid="{D4300E0C-72DD-4662-B930-6764FF3080C1}"/>
-    <hyperlink ref="P9" r:id="rId74" xr:uid="{32FBBFC5-F7A7-4890-8547-517ECE9977BF}"/>
-    <hyperlink ref="T6" r:id="rId75" xr:uid="{2D0EAF64-E197-4DCE-93D4-666A41F000AE}"/>
-    <hyperlink ref="L6" r:id="rId76" xr:uid="{68ADF87E-95A1-493E-9973-6A2A6469D49E}"/>
-    <hyperlink ref="M6" r:id="rId77" xr:uid="{754160B0-EA28-43F5-A0F7-27BF91379621}"/>
-    <hyperlink ref="M9" r:id="rId78" xr:uid="{B9C99113-026E-4DE8-9FB9-3F924DD5AF5F}"/>
-    <hyperlink ref="AA6" r:id="rId79" xr:uid="{4696A5E6-2046-4920-B55C-6CE41F59078E}"/>
-    <hyperlink ref="H6" r:id="rId80" xr:uid="{2CBA8876-2463-475C-918E-5C66EEA31EDC}"/>
-    <hyperlink ref="N6" r:id="rId81" xr:uid="{C3E36662-AD30-4BB1-881C-55E55DCCA80E}"/>
-    <hyperlink ref="J14" r:id="rId82" xr:uid="{7BDA3945-DB4B-4152-940C-7DF5072B6FF1}"/>
-    <hyperlink ref="J19" r:id="rId83" xr:uid="{EE9BD5FE-C806-49EC-91D5-A15B8AA76E8E}"/>
-    <hyperlink ref="J6" r:id="rId84" xr:uid="{A16411AA-E532-4386-974A-7DA8E41658F4}"/>
-    <hyperlink ref="AD3" r:id="rId85" xr:uid="{9E32E8C3-995A-431B-808E-B306DC0666D5}"/>
-    <hyperlink ref="AD6" r:id="rId86" xr:uid="{5DDFEB19-482E-4C2E-947D-F99903F67C03}"/>
-    <hyperlink ref="AD14" r:id="rId87" xr:uid="{518C9268-1CE9-4F0E-8EE6-B5D7D6F20494}"/>
-    <hyperlink ref="S14" r:id="rId88" xr:uid="{E7CB7639-AB33-4800-B9B2-8C71F051DDD7}"/>
-    <hyperlink ref="S6" r:id="rId89" xr:uid="{61F3112D-9682-499F-AC29-2F8EA0E1CA02}"/>
-    <hyperlink ref="AB3" r:id="rId90" xr:uid="{02D3E7D8-A515-49F7-9BB5-B352367C644F}"/>
-    <hyperlink ref="AB6" r:id="rId91" display="mailto:martinezmj@uthscsa.edu" xr:uid="{A2CD0C6B-08AD-4E58-A76E-838DA92E689F}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{CAE10E69-F2C1-4C2A-803D-4C23CE8FE156}"/>
+    <hyperlink ref="R3" r:id="rId2" xr:uid="{E5AC1FAA-1C57-4E5B-923A-B3AA4E872538}"/>
+    <hyperlink ref="T3" r:id="rId3" xr:uid="{99EB1C42-DF67-4F28-AC60-1C300AABF46A}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{39EFD384-CE27-4D2E-B834-8EFF81765F7D}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{49AF68AB-352E-4EA9-A544-485EA3CEFEE0}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{8B9E4F88-EFCE-4618-A758-C67D488BFD9B}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{4C47680C-21D1-4BE0-A977-31C571E37645}"/>
+    <hyperlink ref="S3" r:id="rId8" xr:uid="{04EA9689-B303-4B4F-953E-E978840B69D1}"/>
+    <hyperlink ref="Z3" r:id="rId9" xr:uid="{B5FF5CE0-7F2C-41B8-A078-7E8C702DA2A7}"/>
+    <hyperlink ref="M3" r:id="rId10" xr:uid="{835846D3-55AE-4C0F-9758-0F7597173C17}"/>
+    <hyperlink ref="N3" r:id="rId11" xr:uid="{89F5D99B-5B40-4586-9C10-02B77E2A62BA}"/>
+    <hyperlink ref="P3" r:id="rId12" xr:uid="{4F004EF8-53B7-4A42-8718-3C85E47526DE}"/>
+    <hyperlink ref="AB3" r:id="rId13" xr:uid="{9CBF0D95-9B99-49F9-B16A-C7754EE68FF4}"/>
+    <hyperlink ref="J3" r:id="rId14" xr:uid="{A9A68160-6F95-4F8A-A835-5242FF626C6A}"/>
+    <hyperlink ref="Y3" r:id="rId15" xr:uid="{F7A3A04A-BA7D-4070-B63D-1BF9BBCFB666}"/>
+    <hyperlink ref="W3" r:id="rId16" xr:uid="{57CD84E4-2DC7-412C-825C-7E197EFA4010}"/>
+    <hyperlink ref="L3" r:id="rId17" xr:uid="{0DD4E60D-F222-4418-8379-11FA8A525061}"/>
+    <hyperlink ref="H3" r:id="rId18" xr:uid="{338EBD84-0475-487A-BE1E-3F1B258C2B08}"/>
+    <hyperlink ref="AA3" r:id="rId19" xr:uid="{1B9780EB-12D0-48DC-85CB-2FABA5C74002}"/>
+    <hyperlink ref="AD3" r:id="rId20" xr:uid="{3C927BDA-F8F4-40AD-AB94-077C3D78B237}"/>
+    <hyperlink ref="I3" r:id="rId21" xr:uid="{DB801DFD-2FE4-4208-BB71-D37E7D7A5185}"/>
+    <hyperlink ref="K3" r:id="rId22" xr:uid="{90F4D28C-4349-416D-9C59-C6FF46E18DF4}"/>
+    <hyperlink ref="AC3" r:id="rId23" xr:uid="{5EA0B5A4-18E7-4229-9E31-51920ABFF8B7}"/>
+    <hyperlink ref="O3" r:id="rId24" xr:uid="{98C8F20B-6D12-4098-9319-611F1FBA045D}"/>
+    <hyperlink ref="X3" r:id="rId25" xr:uid="{E86CECCB-B73A-48F9-B536-0C81A82E8CFE}"/>
+    <hyperlink ref="V3" r:id="rId26" xr:uid="{58E437BD-B4A2-4B8A-9A18-9AE4B2B8EFD8}"/>
+    <hyperlink ref="U3" r:id="rId27" xr:uid="{1F3B80CF-568E-4257-A2F5-0C7627F25EA0}"/>
+    <hyperlink ref="B4" r:id="rId28" xr:uid="{30750382-02E1-4408-BEA8-63415570A5CB}"/>
+    <hyperlink ref="R4" r:id="rId29" xr:uid="{583AA2A0-68CE-4DC7-8C70-167B6C6FB12B}"/>
+    <hyperlink ref="T4" r:id="rId30" xr:uid="{6AF166D4-3A21-49EE-85E0-10CEE2ED31B9}"/>
+    <hyperlink ref="G4" r:id="rId31" xr:uid="{3CC37D81-51D5-4C1E-894D-58A024154EAD}"/>
+    <hyperlink ref="F4" r:id="rId32" xr:uid="{CDD370A2-A599-4DEF-A9F4-6AC9FBC825DC}"/>
+    <hyperlink ref="Q4" r:id="rId33" xr:uid="{305198A9-CCCB-498E-81BD-54FD82CDAFB5}"/>
+    <hyperlink ref="D4" r:id="rId34" xr:uid="{9BDAF2FD-C8F6-4AAE-A35E-34C6F7497350}"/>
+    <hyperlink ref="C4" r:id="rId35" xr:uid="{B71A5A04-1D2A-42C0-9FCC-909BF03948B2}"/>
+    <hyperlink ref="S4" r:id="rId36" xr:uid="{98E864E3-470C-4ABB-A12C-3F243CCDC3B8}"/>
+    <hyperlink ref="Z4" r:id="rId37" xr:uid="{F45E8A2F-6E3D-450F-B10E-FFCFFCAA6C24}"/>
+    <hyperlink ref="M4" r:id="rId38" xr:uid="{566379A5-034E-4CE1-8CE2-5FAEF11C3AB7}"/>
+    <hyperlink ref="N4" r:id="rId39" xr:uid="{D71F17F0-0A7C-4A5B-9734-DCFFA8F0D543}"/>
+    <hyperlink ref="P4" r:id="rId40" xr:uid="{4B6E7046-A21A-450D-BC5B-37EB36751FF3}"/>
+    <hyperlink ref="AB4" r:id="rId41" xr:uid="{AEF4CEFC-A16D-4F04-B088-A8CC2534CA8D}"/>
+    <hyperlink ref="J4" r:id="rId42" xr:uid="{AB4AAE96-A7D1-4048-B31E-D515555118E6}"/>
+    <hyperlink ref="Y4" r:id="rId43" xr:uid="{8BD493F9-8ADB-4866-94AA-294F25BEBF21}"/>
+    <hyperlink ref="W4" r:id="rId44" xr:uid="{A284AD45-B557-4F47-9275-D345A06C930C}"/>
+    <hyperlink ref="H4" r:id="rId45" display="https://github.com/Kitware/ParaView" xr:uid="{C57B1176-F669-40DB-AB37-0C6236301A26}"/>
+    <hyperlink ref="AA4" r:id="rId46" xr:uid="{0571CD7D-3152-4DA6-9A8D-B98AE7F92830}"/>
+    <hyperlink ref="AD4" r:id="rId47" xr:uid="{59BF66B8-83F2-4600-A9CD-DB8121578AB8}"/>
+    <hyperlink ref="I4" r:id="rId48" xr:uid="{34557B08-FB26-4A7E-AE31-AAA01D8C940D}"/>
+    <hyperlink ref="K4" r:id="rId49" xr:uid="{0EBA5679-CCE6-4B12-BCC6-FAB760C32659}"/>
+    <hyperlink ref="AC4" r:id="rId50" xr:uid="{FDBE4172-3B9A-48F8-8B63-91A229BF0DB1}"/>
+    <hyperlink ref="O4" r:id="rId51" xr:uid="{EE2A8B79-09A7-4C23-A735-248D58376539}"/>
+    <hyperlink ref="V4" r:id="rId52" xr:uid="{07233E9E-77DC-418D-B624-51287FB82597}"/>
+    <hyperlink ref="B7" r:id="rId53" xr:uid="{7005DD86-C5B4-450F-89A6-B8ED882ED37C}"/>
+    <hyperlink ref="B18" r:id="rId54" xr:uid="{950EEB43-3CCA-4C76-8B7B-B592B1EF6071}"/>
+    <hyperlink ref="B25" r:id="rId55" xr:uid="{04944BFA-ED21-4C76-9DF6-F7DF0629FCBC}"/>
+    <hyperlink ref="R7" r:id="rId56" xr:uid="{7712F2F1-605C-4A1F-8B1C-81D896B8B0A7}"/>
+    <hyperlink ref="T7" r:id="rId57" xr:uid="{7BA53574-1E5B-4909-92EA-FA69DC878F18}"/>
+    <hyperlink ref="G7" r:id="rId58" xr:uid="{B87ACF58-21D8-4702-91D3-F726F07757BF}"/>
+    <hyperlink ref="Q7" r:id="rId59" xr:uid="{238F5EA3-4AC1-4F70-9EB7-E298BA90FE9D}"/>
+    <hyperlink ref="C7" r:id="rId60" xr:uid="{AA08B5E5-B2EE-4852-8287-D2FBFCA6D7E9}"/>
+    <hyperlink ref="E3" r:id="rId61" xr:uid="{0726A5D8-5B68-4CBA-929C-5E2D89A48BCF}"/>
+    <hyperlink ref="E4" r:id="rId62" xr:uid="{B9E0C8A0-5F7D-4918-9A99-7B4BE9E60D3D}"/>
+    <hyperlink ref="E7" r:id="rId63" xr:uid="{97F2405B-9EA9-4770-973F-F6B3200FA1BE}"/>
+    <hyperlink ref="F7" r:id="rId64" xr:uid="{07849C43-B244-4336-98DC-8DE607D1E1BA}"/>
+    <hyperlink ref="E13" r:id="rId65" xr:uid="{0A71B801-7588-4AC0-956B-796D0045F122}"/>
+    <hyperlink ref="F13" r:id="rId66" xr:uid="{B34559C7-7D5D-4C96-8A35-5720F03B2451}"/>
+    <hyperlink ref="H7" r:id="rId67" xr:uid="{2009BCEE-D964-4DE7-A832-50FD52B8E43A}"/>
+    <hyperlink ref="I7" r:id="rId68" xr:uid="{76C5519C-FF07-4B55-9BBA-420B5904C6AB}"/>
+    <hyperlink ref="I18" r:id="rId69" xr:uid="{230E8979-9044-400B-8DDB-920AA8CF2057}"/>
+    <hyperlink ref="J7" r:id="rId70" xr:uid="{F79B8E4C-3952-4812-9FF1-E4E07499781C}"/>
+    <hyperlink ref="J18" r:id="rId71" xr:uid="{248C5786-92B1-4DDC-8C84-E5D319A19AE0}"/>
+    <hyperlink ref="K7" r:id="rId72" xr:uid="{DC0EC169-1A5B-46C3-9058-DF5032234671}"/>
+    <hyperlink ref="K18" r:id="rId73" xr:uid="{2357C9DE-123C-4BB3-A3E5-997E6F3E8A45}"/>
+    <hyperlink ref="J13" r:id="rId74" xr:uid="{6B2AF453-8446-4826-86B0-472BB1704904}"/>
+    <hyperlink ref="L7" r:id="rId75" xr:uid="{2A88094A-689C-4A23-BEAD-6F4727BF6BBF}"/>
+    <hyperlink ref="M7" r:id="rId76" xr:uid="{C3435DDF-11B4-4655-AA60-583C1C3BFC71}"/>
+    <hyperlink ref="N7" r:id="rId77" xr:uid="{E30211BC-5238-4453-A5E9-41DC951E02C5}"/>
+    <hyperlink ref="N13" r:id="rId78" xr:uid="{379FFEE2-2EBE-4785-BF91-9FD5598211BE}"/>
+    <hyperlink ref="O7" r:id="rId79" xr:uid="{9655DF8C-A66E-459A-92DC-2631E24EFA31}"/>
+    <hyperlink ref="D7" r:id="rId80" xr:uid="{A0AF8FFE-8501-4441-899C-F69FE5559F4F}"/>
+    <hyperlink ref="P7" r:id="rId81" xr:uid="{D7760ADE-539F-47E1-B036-E8BD8C9EB4BA}"/>
+    <hyperlink ref="S18" r:id="rId82" xr:uid="{F4DFC1F1-8D6E-4606-90F6-C80912BD591D}"/>
+    <hyperlink ref="S25" r:id="rId83" xr:uid="{86047F37-40BE-40AD-82AB-20A9B5F80F8E}"/>
+    <hyperlink ref="S7" r:id="rId84" xr:uid="{E8528C0E-3BA6-43A7-8942-004F42B1CDE7}"/>
+    <hyperlink ref="U4" r:id="rId85" xr:uid="{7461D01B-1B08-4825-B96C-181BF5F9F05E}"/>
+    <hyperlink ref="U7" r:id="rId86" xr:uid="{77B02882-E6E5-44CC-8BAB-21C46A8F147B}"/>
+    <hyperlink ref="U18" r:id="rId87" xr:uid="{8F719DD5-A136-4305-BBCE-C6EB0D6FE0BA}"/>
+    <hyperlink ref="W18" r:id="rId88" xr:uid="{D725801C-136F-4959-9A2B-8F8B7405E7B6}"/>
+    <hyperlink ref="W7" r:id="rId89" xr:uid="{24352003-569F-415D-8B1E-2D5F18752A68}"/>
+    <hyperlink ref="X4" r:id="rId90" xr:uid="{F5838868-3CDA-4ACE-9C0D-73F9D39EEF17}"/>
+    <hyperlink ref="X7" r:id="rId91" display="mailto:martinezmj@uthscsa.edu" xr:uid="{A25F5696-E8DC-41CC-B1FE-C737E2C0E04B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId92"/>

--- a/StateOfPractice/Ao-Notes/Medical Imaging Interview Record.xlsx
+++ b/StateOfPractice/Ao-Notes/Medical Imaging Interview Record.xlsx
@@ -862,13 +862,13 @@
   </sheetPr>
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O7" activeCellId="0" sqref="O7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="C4" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28"/>
   </cols>
@@ -1637,7 +1637,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>149</v>
       </c>
@@ -1694,9 +1694,12 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>132</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>44320</v>
       </c>
       <c r="I21" s="5" t="n">
         <v>44259</v>
@@ -1713,9 +1716,12 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>133</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>44341</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>44266</v>
@@ -1812,12 +1818,12 @@
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 D10:E10 G10 I10:AD10">
+  <conditionalFormatting sqref="A10:B10 D10:E10 G10 I10:AD10 E21">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11 G11:AD11 D11:E11">
+  <conditionalFormatting sqref="A11:B11 G11:AD11 D11:E11 E22">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
@@ -1842,12 +1848,12 @@
       <formula>LEN(TRIM(C11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21 G21:AD21 D21:E21">
+  <conditionalFormatting sqref="A21:B21 G21:AD21 D21">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>LEN(TRIM(A21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22 G22:AD22 D22:E22">
+  <conditionalFormatting sqref="A22:B22 G22:AD22 D22">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
@@ -1862,12 +1868,12 @@
       <formula>LEN(TRIM(F22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:S21">
+  <conditionalFormatting sqref="F21:S21 B21:D21">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>LEN(TRIM(B21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:S22">
+  <conditionalFormatting sqref="F22:S22 B22:D22">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>LEN(TRIM(B22))&gt;0</formula>
     </cfRule>
